--- a/20_営業/07_会計/TE030/T_TE030_CFO_019_A15_01_電子帳簿仕訳の情報系システム連携_OIC統合.xlsx
+++ b/20_営業/07_会計/TE030/T_TE030_CFO_019_A15_01_電子帳簿仕訳の情報系システム連携_OIC統合.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itoenfile\system\30.SCSK\89_SaaS対応\20_ERPCloud導入\30_テストフェーズ\20_パフォーマンステスト\30_不具合フォルダ\PT0006_CFO_040\20_恒久対応\20_対応中\単体テスト\XXCFO_019_A15_01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_19901～20000\E_本稼動_19992【共通】OIC3アップグレード対応\20_成果物\TE030\無影響確認\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="5400" windowWidth="23040" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="6000" windowWidth="23040" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -26,8 +26,9 @@
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ6)" sheetId="16" r:id="rId12"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ7)" sheetId="18" r:id="rId13"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ1)_Issue1.2" sheetId="17" r:id="rId14"/>
-    <sheet name="不具合ログ" sheetId="7" r:id="rId15"/>
-    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId16"/>
+    <sheet name="テスト仕様_テスト結果(テスト・シナリオ8)" sheetId="19" r:id="rId15"/>
+    <sheet name="不具合ログ" sheetId="7" r:id="rId16"/>
+    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="3">テスト・シナリオ一覧!$A$1:$F$19</definedName>
@@ -41,9 +42,10 @@
     <definedName name="_xlnm.Print_Area" localSheetId="10">'テスト仕様_テスト結果(テスト・シナリオ5)'!$A$1:$I$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'テスト仕様_テスト結果(テスト・シナリオ6)'!$A$1:$I$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">'テスト仕様_テスト結果(テスト・シナリオ7)'!$A$1:$I$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">'テスト仕様_テスト結果(テスト・シナリオ8)'!$A$1:$I$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">作成上の注意点!$A$1:$M$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$H$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$18</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -55,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="309">
   <si>
     <t>株式会社伊藤園</t>
     <phoneticPr fontId="5"/>
@@ -2143,10 +2145,6 @@
     <rPh sb="0" eb="2">
       <t>シミズ</t>
     </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>Issue1.2</t>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -2270,6 +2268,155 @@
     </r>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>Issue1.3</t>
+  </si>
+  <si>
+    <t>Issue1.3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SCSK 佐藤勇樹</t>
+    <rPh sb="5" eb="9">
+      <t>サトウユウキ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>シナリオ8</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OIC3アップグレード 無影響確認テスト(DBへのCUID・共通処理動作確認)</t>
+  </si>
+  <si>
+    <t>テスト・シナリオ8</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>正常終了する。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>左記の通り</t>
+    <rPh sb="0" eb="2">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>トオ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>佐藤</t>
+    <rPh sb="0" eb="2">
+      <t>サトウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>以下のパラメータでXXCFO019A15_01を起動する
+OIC3アップグレードの影響でDBへのCUIDを実行するアクティビティまたは共通関数を呼び出すアクティビティの実行に影響が出ていないことを確認する。</t>
+    <rPh sb="84" eb="86">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="87" eb="89">
+      <t>エイキョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCFO019A15_01(銀行手数料仮勘定会社間振替)</t>
+    <rPh sb="15" eb="17">
+      <t>ギンコウ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>テスウリョウ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>カリカンジョウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>カイシャ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カン</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>フリカエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCFO019A15_01から共通処理XXCCD002が実行され、正常終了する。</t>
+    <rPh sb="16" eb="20">
+      <t>キョウツウショリ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ジッコウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD002(前回処理日取得)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD002(業務日付取得)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD002(処理開始時刻取得)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD002(猶予日数取得)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD002(初回データ対象日時取得)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>XXCCD002(仕訳ヘッダID取得)</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>8-2</t>
+  </si>
+  <si>
+    <t>8-3</t>
+  </si>
+  <si>
+    <t>8-4</t>
+  </si>
+  <si>
+    <t>8-5</t>
+  </si>
+  <si>
+    <t>8-6</t>
+  </si>
+  <si>
+    <t>8-7</t>
+  </si>
+  <si>
+    <t>T_TE030_CFO_019_A15_01_電子帳簿仕訳の情報系システム連携_OIC統合_エビデンス(シナリオ8).xlsx</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+  "paramList" : "1"
+}
+</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>E_本稼働_19992 OICアップグレード対応 無影響確認</t>
+  </si>
 </sst>
 </file>
 
@@ -2280,7 +2427,7 @@
     <numFmt numFmtId="177" formatCode="mmm\ dd\ yyyy"/>
     <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2477,13 +2624,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF7030A0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color rgb="FF7030A0"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -2514,6 +2654,35 @@
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF00FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="9">
@@ -2565,7 +2734,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -3175,6 +3344,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3188,7 +3368,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="149">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3547,29 +3727,47 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="28" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="31" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="32" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="33" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="27" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="49" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3615,6 +3813,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF99CC"/>
+      <color rgb="FFFF00FF"/>
       <color rgb="FF0000FF"/>
       <color rgb="FFC0C0C0"/>
     </mruColors>
@@ -4627,6 +4827,731 @@
         <a:xfrm>
           <a:off x="28575" y="30184725"/>
           <a:ext cx="3400425" cy="466725"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 他に添付するエビデンスなどがあれば</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>         記述します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="251460" y="30502860"/>
+          <a:ext cx="6939915" cy="2606040"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.020作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト・シナリオ毎のテスト・ステップを記載して下さい。コンカレント・プログラムの場合は各プロセスの内部処理、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        画面の場合は各機能の内部処理で、結果が分岐しうる処理を網羅するようにして下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト内容」には、テスト・ステップ毎のテスト内容を記載して下さい。また、記載の上の注意は、以下を参照して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・処理が分岐しうる条件を、カラム名単位で詳細に記載して下さい。その際、カラム名は、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               検証のポイントとなるカラムを選択して記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>　                 例：○○フラグ＝'Y'によって抽出対象となる事を確認</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・データ取得ロジック(SELECT文)を確認する場合、SELECTできないケースも記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・１データを複数のテスト・ステップで使用する場合、以下の例を参考に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                   例：シナリオX-Xと同時検証</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト対象機能」には、「MD.050機能拡張に当っての機能設計書」（または「MD.070 機能拡張にあたっての</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        技術設計書」）で定義される「機能番号」および「機能名」を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 画面テストの際に画面から入力する値は、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: コンカレント、共通関数のテスト実施の際に使用するパラメータは、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>205</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="251460" y="33204150"/>
+          <a:ext cx="6939915" cy="2802255"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.070作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト結果表に単体テスト結果を記載する際には、次のガイドラインに従います。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            1）予想結果: 成否判定が可能な予想される結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                    例：○○フラグ＝'Y'により抽出対象となる、××IDが不一致のため更新対象外となる</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            2）実際の結果: 実際にテスト・ステップで定義された内容でテストを実施した際の、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               予想結果に対応する実際の結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            3）判定: 予想結果と実際の結果を比較し、テストの成否を判定した結果を以下の3つの記号で記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・○: テスト成功</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・×: テスト失敗</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・－: 対象外（前ステップでテストが失敗し、テストが実施できなかったような場合に使用します。）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            4）テスター: テスト実施者名を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            5）実施日: テスト実施日の年月日を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: パフォーマンス・テスト用のテスト・シナリオの場合、「予想結果」、「実際の結果」に処理時間を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 再テストの場合、行を挿入して再テスト結果を記載してください。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2447925</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="28575" y="29683710"/>
+          <a:ext cx="3303270" cy="455295"/>
         </a:xfrm>
         <a:prstGeom prst="foldedCorner">
           <a:avLst>
@@ -10771,7 +11696,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="10.75" style="2" customWidth="1"/>
@@ -10808,15 +11733,15 @@
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="2:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="138" t="s">
+      <c r="B6" s="144" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="138"/>
-      <c r="D6" s="138"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="138"/>
-      <c r="G6" s="138"/>
-      <c r="H6" s="138"/>
+      <c r="C6" s="144"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="144"/>
+      <c r="G6" s="144"/>
+      <c r="H6" s="144"/>
     </row>
     <row r="7" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="5"/>
@@ -10825,41 +11750,41 @@
       <c r="B8" s="5"/>
     </row>
     <row r="9" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="139"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="139"/>
-      <c r="F9" s="139"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="139"/>
+      <c r="C9" s="145"/>
+      <c r="D9" s="145"/>
+      <c r="E9" s="145"/>
+      <c r="F9" s="145"/>
+      <c r="G9" s="145"/>
+      <c r="H9" s="145"/>
     </row>
     <row r="10" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="5"/>
     </row>
     <row r="11" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="139" t="s">
+      <c r="B11" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="139"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="139"/>
-      <c r="H11" s="139"/>
+      <c r="C11" s="145"/>
+      <c r="D11" s="145"/>
+      <c r="E11" s="145"/>
+      <c r="F11" s="145"/>
+      <c r="G11" s="145"/>
+      <c r="H11" s="145"/>
     </row>
     <row r="12" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="13" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="139" t="s">
+      <c r="B13" s="145" t="s">
         <v>91</v>
       </c>
-      <c r="C13" s="139"/>
-      <c r="D13" s="139"/>
-      <c r="E13" s="139"/>
-      <c r="F13" s="139"/>
-      <c r="G13" s="139"/>
-      <c r="H13" s="139"/>
+      <c r="C13" s="145"/>
+      <c r="D13" s="145"/>
+      <c r="E13" s="145"/>
+      <c r="F13" s="145"/>
+      <c r="G13" s="145"/>
+      <c r="H13" s="145"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B14" s="6"/>
@@ -10895,8 +11820,8 @@
       <c r="B20" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="137">
-        <v>45027</v>
+      <c r="C20" s="133">
+        <v>45561</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
@@ -10919,8 +11844,8 @@
       <c r="B24" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="130" t="s">
-        <v>278</v>
+      <c r="C24" s="132" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
@@ -10979,7 +11904,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -11498,7 +12423,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -12078,7 +13003,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -12747,7 +13672,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -13208,7 +14133,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -13307,13 +14232,13 @@
         <v>85</v>
       </c>
       <c r="C12" s="117" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D12" s="46" t="s">
         <v>102</v>
       </c>
       <c r="E12" s="51" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F12" s="39" t="s">
         <v>176</v>
@@ -13322,7 +14247,7 @@
         <v>180</v>
       </c>
       <c r="H12" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I12" s="78">
         <v>45029</v>
@@ -13343,7 +14268,7 @@
         <v>180</v>
       </c>
       <c r="H13" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I13" s="78">
         <v>45029</v>
@@ -13364,7 +14289,7 @@
         <v>180</v>
       </c>
       <c r="H14" s="39" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I14" s="78">
         <v>45029</v>
@@ -13722,12 +14647,408 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF99CC"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
+    <col min="3" max="3" width="40.125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21.625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="27" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="25"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="37" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="105" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="106" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="106" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="106" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="106" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="106" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="106" t="s">
+        <v>48</v>
+      </c>
+      <c r="I10" s="107" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="A11" s="38"/>
+      <c r="B11" s="143" t="s">
+        <v>299</v>
+      </c>
+      <c r="C11" s="117" t="s">
+        <v>290</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>287</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>289</v>
+      </c>
+      <c r="I11" s="78">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="42" x14ac:dyDescent="0.15">
+      <c r="A12" s="38"/>
+      <c r="B12" s="143" t="s">
+        <v>300</v>
+      </c>
+      <c r="C12" s="117" t="s">
+        <v>307</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>293</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>292</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="H12" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="I12" s="76">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="38"/>
+      <c r="B13" s="143" t="s">
+        <v>301</v>
+      </c>
+      <c r="C13" s="117"/>
+      <c r="D13" s="57" t="s">
+        <v>294</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>292</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="H13" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="I13" s="76">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="38"/>
+      <c r="B14" s="143" t="s">
+        <v>302</v>
+      </c>
+      <c r="C14" s="117"/>
+      <c r="D14" s="57" t="s">
+        <v>295</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>292</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="G14" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="H14" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="I14" s="76">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="38"/>
+      <c r="B15" s="143" t="s">
+        <v>303</v>
+      </c>
+      <c r="C15" s="117"/>
+      <c r="D15" s="57" t="s">
+        <v>296</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>292</v>
+      </c>
+      <c r="F15" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="I15" s="76">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="38"/>
+      <c r="B16" s="143" t="s">
+        <v>304</v>
+      </c>
+      <c r="C16" s="117"/>
+      <c r="D16" s="57" t="s">
+        <v>297</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>292</v>
+      </c>
+      <c r="F16" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="I16" s="76">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="38"/>
+      <c r="B17" s="143" t="s">
+        <v>305</v>
+      </c>
+      <c r="C17" s="117"/>
+      <c r="D17" s="57" t="s">
+        <v>298</v>
+      </c>
+      <c r="E17" s="57" t="s">
+        <v>292</v>
+      </c>
+      <c r="F17" s="51" t="s">
+        <v>288</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="H17" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="I17" s="76">
+        <v>45432</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="72"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="77"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+    </row>
+    <row r="21" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="35"/>
+    </row>
+    <row r="22" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A22" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="35"/>
+      <c r="I22" s="35"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="35"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="35"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B24" s="126" t="s">
+        <v>306</v>
+      </c>
+      <c r="C24" s="35"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="35"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="35"/>
+      <c r="I25" s="35"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="35"/>
+      <c r="I26" s="35"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="35"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="35"/>
+      <c r="I27" s="35"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="35"/>
+      <c r="I28" s="35"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G18">
+      <formula1>"OK,NG"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="3" width="9.125" style="27" customWidth="1"/>
@@ -13758,38 +15079,38 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="B5" s="143" t="s">
+      <c r="B5" s="149" t="s">
         <v>67</v>
       </c>
       <c r="C5" s="108" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="145" t="s">
+      <c r="D5" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="E5" s="147" t="s">
+      <c r="E5" s="153" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="145" t="s">
+      <c r="F5" s="151" t="s">
         <v>55</v>
       </c>
-      <c r="G5" s="147" t="s">
+      <c r="G5" s="153" t="s">
         <v>56</v>
       </c>
-      <c r="H5" s="141" t="s">
+      <c r="H5" s="147" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="144"/>
+      <c r="B6" s="150"/>
       <c r="C6" s="109" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="148"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="148"/>
-      <c r="H6" s="142"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="148"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B7" s="66" t="s">
@@ -13976,14 +15297,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="27" customWidth="1"/>
     <col min="2" max="2" width="6.625" style="27" customWidth="1"/>
@@ -14148,14 +15469,14 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="15"/>
-    <col min="2" max="2" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.625" style="15" customWidth="1"/>
     <col min="4" max="4" width="7.625" style="15" customWidth="1"/>
     <col min="5" max="16384" width="9" style="15"/>
@@ -14267,16 +15588,16 @@
       <c r="I10" s="92"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B11" s="131">
+      <c r="B11" s="134">
         <v>45027</v>
       </c>
-      <c r="C11" s="132" t="s">
+      <c r="C11" s="135" t="s">
         <v>216</v>
       </c>
-      <c r="D11" s="133" t="s">
+      <c r="D11" s="136" t="s">
         <v>215</v>
       </c>
-      <c r="E11" s="134" t="s">
+      <c r="E11" s="137" t="s">
         <v>217</v>
       </c>
       <c r="F11" s="23"/>
@@ -14284,18 +15605,33 @@
       <c r="H11" s="23"/>
       <c r="I11" s="92"/>
     </row>
-    <row r="12" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="93"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="98"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="17"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B12" s="138">
+        <v>45561</v>
+      </c>
+      <c r="C12" s="139" t="s">
+        <v>283</v>
+      </c>
+      <c r="D12" s="140" t="s">
+        <v>281</v>
+      </c>
+      <c r="E12" s="141" t="s">
+        <v>308</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="92"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="93"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="97"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="98"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="17"/>
@@ -14305,6 +15641,9 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="17"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -14325,7 +15664,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="13" width="6.625" style="27" customWidth="1"/>
     <col min="14" max="16384" width="9" style="27"/>
@@ -14513,6 +15852,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
+    <tabColor rgb="FFFF99CC"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F19"/>
@@ -14651,7 +15991,7 @@
       <c r="D12" s="121" t="s">
         <v>219</v>
       </c>
-      <c r="E12" s="136" t="s">
+      <c r="E12" s="131" t="s">
         <v>218</v>
       </c>
       <c r="F12" s="84"/>
@@ -14660,20 +16000,24 @@
       <c r="A13" s="84"/>
       <c r="B13" s="84"/>
       <c r="C13" s="84"/>
-      <c r="D13" s="135" t="s">
+      <c r="D13" s="130" t="s">
         <v>221</v>
       </c>
-      <c r="E13" s="136" t="s">
+      <c r="E13" s="131" t="s">
         <v>220</v>
       </c>
       <c r="F13" s="84"/>
     </row>
-    <row r="14" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="84"/>
       <c r="B14" s="84"/>
       <c r="C14" s="84"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="87"/>
+      <c r="D14" s="121" t="s">
+        <v>284</v>
+      </c>
+      <c r="E14" s="142" t="s">
+        <v>285</v>
+      </c>
       <c r="F14" s="84"/>
     </row>
     <row r="15" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
@@ -14726,6 +16070,7 @@
     <hyperlink ref="D11" location="'テスト仕様_テスト結果(テスト・シナリオ5)'!A1" display="シナリオ5"/>
     <hyperlink ref="D12" location="'テスト仕様_テスト結果(テスト・シナリオ6)'!A1" display="シナリオ6"/>
     <hyperlink ref="D13" location="'テスト仕様_テスト結果(テスト・シナリオ5)'!A1" display="シナリオ5"/>
+    <hyperlink ref="D14" location="'テスト仕様_テスト結果(テスト・シナリオ8)'!A1" display="シナリオ8"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
@@ -14745,7 +16090,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="27" customWidth="1"/>
@@ -14778,10 +16123,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="146" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="140"/>
+      <c r="C7" s="146"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B8" s="128"/>
@@ -15004,7 +16349,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -15528,7 +16873,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -16053,7 +17398,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -16644,7 +17989,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
